--- a/Code/Results/Cases/Case_7_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_24/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.393266220706721</v>
+        <v>1.139714507642253</v>
       </c>
       <c r="C2">
-        <v>0.2529438929541072</v>
+        <v>0.06342899345300523</v>
       </c>
       <c r="D2">
-        <v>0.3902507562473971</v>
+        <v>0.4548921717272805</v>
       </c>
       <c r="E2">
-        <v>0.04485495538606266</v>
+        <v>0.06917855777971837</v>
       </c>
       <c r="F2">
-        <v>6.690673992154757</v>
+        <v>6.975788481389827</v>
       </c>
       <c r="G2">
-        <v>0.0008145494640659436</v>
+        <v>0.0008526683237140074</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5251655611062276</v>
+        <v>0.8520606128982138</v>
       </c>
       <c r="L2">
-        <v>0.292016439065776</v>
+        <v>0.2425466164022367</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.07385942380489</v>
+        <v>1.002073492496095</v>
       </c>
       <c r="C3">
-        <v>0.2177615835730506</v>
+        <v>0.05707916164982052</v>
       </c>
       <c r="D3">
-        <v>0.3538376979702775</v>
+        <v>0.4172833673138427</v>
       </c>
       <c r="E3">
-        <v>0.04194581430907363</v>
+        <v>0.06325670945480155</v>
       </c>
       <c r="F3">
-        <v>5.939471121752376</v>
+        <v>6.262273292794021</v>
       </c>
       <c r="G3">
-        <v>0.0008256344006311449</v>
+        <v>0.0008616547471079717</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4510699459384568</v>
+        <v>0.7376938714203334</v>
       </c>
       <c r="L3">
-        <v>0.2562784366026989</v>
+        <v>0.2145349067435802</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.883829192960405</v>
+        <v>0.9202596816446658</v>
       </c>
       <c r="C4">
-        <v>0.1967130511782926</v>
+        <v>0.0532620999965232</v>
       </c>
       <c r="D4">
-        <v>0.3319767786304055</v>
+        <v>0.3944635733784168</v>
       </c>
       <c r="E4">
-        <v>0.04021425908983467</v>
+        <v>0.05970645772485028</v>
       </c>
       <c r="F4">
-        <v>5.489231578328855</v>
+        <v>5.831186285932375</v>
       </c>
       <c r="G4">
-        <v>0.0008325792225988413</v>
+        <v>0.0008673058180521664</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.406941079498317</v>
+        <v>0.6696810693133557</v>
       </c>
       <c r="L4">
-        <v>0.2349833949458855</v>
+        <v>0.1977813876650174</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.807727006042683</v>
+        <v>0.8875286171903838</v>
       </c>
       <c r="C5">
-        <v>0.1882495487620304</v>
+        <v>0.05172231989515552</v>
       </c>
       <c r="D5">
-        <v>0.3231723992777376</v>
+        <v>0.3852182818180694</v>
       </c>
       <c r="E5">
-        <v>0.03952079085780369</v>
+        <v>0.05827909329322978</v>
       </c>
       <c r="F5">
-        <v>5.308120010075356</v>
+        <v>5.65702101570119</v>
       </c>
       <c r="G5">
-        <v>0.000835447377022458</v>
+        <v>0.0008696441368020846</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3892553808914627</v>
+        <v>0.6424584315778219</v>
       </c>
       <c r="L5">
-        <v>0.2264484606269548</v>
+        <v>0.1910542703492695</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.79516575155759</v>
+        <v>0.8821284906412927</v>
       </c>
       <c r="C6">
-        <v>0.1868503888031654</v>
+        <v>0.05146745583701318</v>
       </c>
       <c r="D6">
-        <v>0.3217161591147857</v>
+        <v>0.3836859665078833</v>
       </c>
       <c r="E6">
-        <v>0.03940633157522733</v>
+        <v>0.05804319143273062</v>
       </c>
       <c r="F6">
-        <v>5.278178423529795</v>
+        <v>5.628184854111453</v>
       </c>
       <c r="G6">
-        <v>0.0008359260201844808</v>
+        <v>0.0008700346079011378</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3863353724701852</v>
+        <v>0.6379662012807188</v>
       </c>
       <c r="L6">
-        <v>0.2250393297780136</v>
+        <v>0.1899429502396259</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.882797681255596</v>
+        <v>0.9198158821056097</v>
       </c>
       <c r="C7">
-        <v>0.1965984793423985</v>
+        <v>0.05324127648188437</v>
       </c>
       <c r="D7">
-        <v>0.3318576440686911</v>
+        <v>0.3943386879322617</v>
       </c>
       <c r="E7">
-        <v>0.04020485950895392</v>
+        <v>0.059687132021363</v>
       </c>
       <c r="F7">
-        <v>5.486779970972066</v>
+        <v>5.828831658424718</v>
       </c>
       <c r="G7">
-        <v>0.0008326177452430832</v>
+        <v>0.0008673372074812369</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4067014183439639</v>
+        <v>0.6693120169148017</v>
       </c>
       <c r="L7">
-        <v>0.234867735930294</v>
+        <v>0.1976902733314603</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.281747794898877</v>
+        <v>1.091651806927331</v>
       </c>
       <c r="C8">
-        <v>0.2406819886569593</v>
+        <v>0.06121952672988584</v>
       </c>
       <c r="D8">
-        <v>0.3775791801734982</v>
+        <v>0.4418590590489799</v>
       </c>
       <c r="E8">
-        <v>0.04383952490275256</v>
+        <v>0.06711752726854314</v>
       </c>
       <c r="F8">
-        <v>6.42912017326546</v>
+        <v>6.728150408425506</v>
       </c>
       <c r="G8">
-        <v>0.0008183448267034479</v>
+        <v>0.0008557403707751874</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4993042735842508</v>
+        <v>0.8121291778274724</v>
       </c>
       <c r="L8">
-        <v>0.2795466809453018</v>
+        <v>0.2327880811069321</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.12243829331851</v>
+        <v>1.453553866814389</v>
       </c>
       <c r="C9">
-        <v>0.3328421922624472</v>
+        <v>0.07776061782074706</v>
       </c>
       <c r="D9">
-        <v>0.4722528681943743</v>
+        <v>0.5379314054425777</v>
       </c>
       <c r="E9">
-        <v>0.0514827838467351</v>
+        <v>0.08247859538930769</v>
       </c>
       <c r="F9">
-        <v>8.385053053093174</v>
+        <v>8.560311825411389</v>
       </c>
       <c r="G9">
-        <v>0.0007912898684117522</v>
+        <v>0.0008339610083061842</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6941454878259776</v>
+        <v>1.112867818956857</v>
       </c>
       <c r="L9">
-        <v>0.3733398909409118</v>
+        <v>0.3057568899532157</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.79213697830437</v>
+        <v>1.740211504203359</v>
       </c>
       <c r="C10">
-        <v>0.4062219390707753</v>
+        <v>0.09085433832178325</v>
       </c>
       <c r="D10">
-        <v>0.5466090032010982</v>
+        <v>0.6114124428996206</v>
       </c>
       <c r="E10">
-        <v>0.05754562552844789</v>
+        <v>0.09441770296145435</v>
       </c>
       <c r="F10">
-        <v>9.921615044937113</v>
+        <v>9.968574606476068</v>
       </c>
       <c r="G10">
-        <v>0.00077171302986658</v>
+        <v>0.0008183955021492333</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8493240743585346</v>
+        <v>1.351411364951161</v>
       </c>
       <c r="L10">
-        <v>0.4477018540902122</v>
+        <v>0.3628455314098886</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.112651288542338</v>
+        <v>1.876587835155902</v>
       </c>
       <c r="C11">
-        <v>0.4414493185399238</v>
+        <v>0.09712070319971389</v>
       </c>
       <c r="D11">
-        <v>0.5819549590970041</v>
+        <v>0.6457646686482406</v>
       </c>
       <c r="E11">
-        <v>0.0604371793674332</v>
+        <v>0.1000353879751863</v>
       </c>
       <c r="F11">
-        <v>10.65147449281807</v>
+        <v>10.62801327072361</v>
       </c>
       <c r="G11">
-        <v>0.0007627987634353597</v>
+        <v>0.0008113700375433708</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9236262488190903</v>
+        <v>1.46506122017621</v>
       </c>
       <c r="L11">
-        <v>0.4831772059100956</v>
+        <v>0.3898202874087957</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.236770971339013</v>
+        <v>1.929231612093361</v>
       </c>
       <c r="C12">
-        <v>0.4551185905025363</v>
+        <v>0.09954867185779648</v>
       </c>
       <c r="D12">
-        <v>0.5956070226206691</v>
+        <v>0.6589345471262789</v>
       </c>
       <c r="E12">
-        <v>0.0615550281854631</v>
+        <v>0.1021937645677369</v>
       </c>
       <c r="F12">
-        <v>10.93323349019425</v>
+        <v>10.88094210742332</v>
       </c>
       <c r="G12">
-        <v>0.0007594144295318778</v>
+        <v>0.0008087138807555598</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9524091091065969</v>
+        <v>1.508964349186556</v>
       </c>
       <c r="L12">
-        <v>0.4968949613707565</v>
+        <v>0.4002035463938256</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.209908964108081</v>
+        <v>1.917846828483164</v>
       </c>
       <c r="C13">
-        <v>0.4521588580121545</v>
+        <v>0.09902313319715006</v>
       </c>
       <c r="D13">
-        <v>0.5926540450509208</v>
+        <v>0.6560905038323881</v>
       </c>
       <c r="E13">
-        <v>0.06131319595435869</v>
+        <v>0.1017274630821419</v>
       </c>
       <c r="F13">
-        <v>10.87229567222153</v>
+        <v>10.82631756179848</v>
       </c>
       <c r="G13">
-        <v>0.0007601438269389919</v>
+        <v>0.0008092858080197009</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9461794319696537</v>
+        <v>1.499468248954571</v>
       </c>
       <c r="L13">
-        <v>0.4939271210482872</v>
+        <v>0.3979594123661059</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.122804625046683</v>
+        <v>1.8808979214229</v>
       </c>
       <c r="C14">
-        <v>0.4425668828991718</v>
+        <v>0.09731928483351737</v>
       </c>
       <c r="D14">
-        <v>0.5830724542289261</v>
+        <v>0.6468447504286132</v>
       </c>
       <c r="E14">
-        <v>0.06052866342575669</v>
+        <v>0.1002123095196161</v>
       </c>
       <c r="F14">
-        <v>10.67454121243338</v>
+        <v>10.6487543039583</v>
       </c>
       <c r="G14">
-        <v>0.0007625205543859173</v>
+        <v>0.0008111514522558591</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9259805567144781</v>
+        <v>1.468654992315635</v>
       </c>
       <c r="L14">
-        <v>0.4842997808399758</v>
+        <v>0.390670997576521</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.069823923934678</v>
+        <v>1.858400575793155</v>
       </c>
       <c r="C15">
-        <v>0.4367365399815526</v>
+        <v>0.09628313414311407</v>
       </c>
       <c r="D15">
-        <v>0.5772398625301776</v>
+        <v>0.6412033924490004</v>
       </c>
       <c r="E15">
-        <v>0.06005121489479848</v>
+        <v>0.09928841823955281</v>
       </c>
       <c r="F15">
-        <v>10.55414195459701</v>
+        <v>10.54042650279013</v>
       </c>
       <c r="G15">
-        <v>0.0007639749914863283</v>
+        <v>0.0008122946451375921</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9136960374483891</v>
+        <v>1.449897933807961</v>
       </c>
       <c r="L15">
-        <v>0.4784412897385693</v>
+        <v>0.3862293478888432</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.77154777202378</v>
+        <v>1.731430882381176</v>
       </c>
       <c r="C16">
-        <v>0.4039620812908424</v>
+        <v>0.09045191121909113</v>
       </c>
       <c r="D16">
-        <v>0.544333623347427</v>
+        <v>0.6091884024774004</v>
       </c>
       <c r="E16">
-        <v>0.05735964234922619</v>
+        <v>0.09405467855168226</v>
       </c>
       <c r="F16">
-        <v>9.874614547884136</v>
+        <v>9.925899193639935</v>
       </c>
       <c r="G16">
-        <v>0.0007722948175960079</v>
+        <v>0.0008188554396062289</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8445520700097262</v>
+        <v>1.344097931560412</v>
       </c>
       <c r="L16">
-        <v>0.4454204435908764</v>
+        <v>0.3611048645789197</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.592933849285373</v>
+        <v>1.655164014812584</v>
       </c>
       <c r="C17">
-        <v>0.3843705818000558</v>
+        <v>0.08696097729330887</v>
       </c>
       <c r="D17">
-        <v>0.5245681651383336</v>
+        <v>0.5898042468921005</v>
       </c>
       <c r="E17">
-        <v>0.05574506852005356</v>
+        <v>0.09089457716857297</v>
       </c>
       <c r="F17">
-        <v>9.466268729953185</v>
+        <v>9.554065439098281</v>
       </c>
       <c r="G17">
-        <v>0.0007773916534420868</v>
+        <v>0.0008228919579002727</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8031585523938247</v>
+        <v>1.280593653996448</v>
       </c>
       <c r="L17">
-        <v>0.4256161339013858</v>
+        <v>0.3459652306546985</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.491660631944114</v>
+        <v>1.611850061530248</v>
       </c>
       <c r="C18">
-        <v>0.3732713912125689</v>
+        <v>0.0849815454868974</v>
       </c>
       <c r="D18">
-        <v>0.5133393838758593</v>
+        <v>0.5787401805579862</v>
       </c>
       <c r="E18">
-        <v>0.05482872267967664</v>
+        <v>0.08909424079504191</v>
       </c>
       <c r="F18">
-        <v>9.234239523405677</v>
+        <v>9.341933013206017</v>
       </c>
       <c r="G18">
-        <v>0.0007803229200026845</v>
+        <v>0.0008252191183494163</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7796914993009381</v>
+        <v>1.244542351328647</v>
       </c>
       <c r="L18">
-        <v>0.4143770420674429</v>
+        <v>0.3373502749727635</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.457609317870094</v>
+        <v>1.597275632620097</v>
       </c>
       <c r="C19">
-        <v>0.3695407304155651</v>
+        <v>0.08431593937363147</v>
       </c>
       <c r="D19">
-        <v>0.5095601790923752</v>
+        <v>0.575007905841062</v>
       </c>
       <c r="E19">
-        <v>0.05452047707169605</v>
+        <v>0.08848752338601429</v>
       </c>
       <c r="F19">
-        <v>9.156140388798235</v>
+        <v>9.270392484563644</v>
       </c>
       <c r="G19">
-        <v>0.0007813155506824823</v>
+        <v>0.0008260080982280178</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.771801499405413</v>
+        <v>1.232413923420495</v>
       </c>
       <c r="L19">
-        <v>0.4105964557533213</v>
+        <v>0.334448686952399</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.611793316300918</v>
+        <v>1.663224583566546</v>
       </c>
       <c r="C20">
-        <v>0.3864381833051169</v>
+        <v>0.08732957694973464</v>
       </c>
       <c r="D20">
-        <v>0.5266574402504887</v>
+        <v>0.5918587134667064</v>
       </c>
       <c r="E20">
-        <v>0.05591564360934598</v>
+        <v>0.09122915889619421</v>
       </c>
       <c r="F20">
-        <v>9.50943759886195</v>
+        <v>9.593464591318508</v>
       </c>
       <c r="G20">
-        <v>0.0007768491671005461</v>
+        <v>0.000822461723663837</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8075288802701124</v>
+        <v>1.287303797226798</v>
       </c>
       <c r="L20">
-        <v>0.4277083093834193</v>
+        <v>0.3475670860437816</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.148310539015426</v>
+        <v>1.891722309305663</v>
       </c>
       <c r="C21">
-        <v>0.4453747636420076</v>
+        <v>0.09781816115659581</v>
       </c>
       <c r="D21">
-        <v>0.5858791121074773</v>
+        <v>0.6495558251974103</v>
       </c>
       <c r="E21">
-        <v>0.06075844600349711</v>
+        <v>0.1006564664598955</v>
       </c>
       <c r="F21">
-        <v>10.7324722112279</v>
+        <v>10.70081731082126</v>
       </c>
       <c r="G21">
-        <v>0.000761822754035449</v>
+        <v>0.0008106033846811168</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9318949100256475</v>
+        <v>1.477680964509887</v>
       </c>
       <c r="L21">
-        <v>0.487119437066255</v>
+        <v>0.3928070001631738</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.515258145033386</v>
+        <v>2.046975081911853</v>
       </c>
       <c r="C22">
-        <v>0.4858531534503072</v>
+        <v>0.104999952803297</v>
       </c>
       <c r="D22">
-        <v>0.6261716095407621</v>
+        <v>0.6882213528525085</v>
       </c>
       <c r="E22">
-        <v>0.06405908916714864</v>
+        <v>0.1070013404320527</v>
       </c>
       <c r="F22">
-        <v>11.56370803686502</v>
+        <v>11.44355819022451</v>
       </c>
       <c r="G22">
-        <v>0.0007519469112151352</v>
+        <v>0.0008028758295274309</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.01701133514544</v>
+        <v>1.607227267438759</v>
       </c>
       <c r="L22">
-        <v>0.5276321105888968</v>
+        <v>0.4233697998363795</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.317740836667838</v>
+        <v>1.963519904213058</v>
       </c>
       <c r="C23">
-        <v>0.4640450415017767</v>
+        <v>0.1011330749703063</v>
       </c>
       <c r="D23">
-        <v>0.6045029154923611</v>
+        <v>0.6674868123897397</v>
       </c>
       <c r="E23">
-        <v>0.0622836664943982</v>
+        <v>0.1035965986272167</v>
       </c>
       <c r="F23">
-        <v>11.11678398589953</v>
+        <v>11.04521565898381</v>
       </c>
       <c r="G23">
-        <v>0.0007572257300137137</v>
+        <v>0.0008069994796890689</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9711888518600631</v>
+        <v>1.537569708484625</v>
       </c>
       <c r="L23">
-        <v>0.5058376754411711</v>
+        <v>0.4069578765071498</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.603262579990542</v>
+        <v>1.659578751067784</v>
       </c>
       <c r="C24">
-        <v>0.385502913779348</v>
+        <v>0.08716284799321272</v>
       </c>
       <c r="D24">
-        <v>0.5257124631194756</v>
+        <v>0.5909296415921972</v>
       </c>
       <c r="E24">
-        <v>0.05583848983096118</v>
+        <v>0.09107784357923521</v>
       </c>
       <c r="F24">
-        <v>9.489912505090501</v>
+        <v>9.575647164633693</v>
       </c>
       <c r="G24">
-        <v>0.00077709442128318</v>
+        <v>0.0008226562120711003</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8055520333915496</v>
+        <v>1.284268723849124</v>
       </c>
       <c r="L24">
-        <v>0.4267619834313621</v>
+        <v>0.3468426117089791</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.887216495991481</v>
+        <v>1.352447112625526</v>
       </c>
       <c r="C25">
-        <v>0.3070949285055349</v>
+        <v>0.07315237083421877</v>
       </c>
       <c r="D25">
-        <v>0.4459401734045656</v>
+        <v>0.5115229227564839</v>
       </c>
       <c r="E25">
-        <v>0.0493473266124731</v>
+        <v>0.07822190491003767</v>
       </c>
       <c r="F25">
-        <v>7.841183912079799</v>
+        <v>8.055362304904747</v>
       </c>
       <c r="G25">
-        <v>0.0007985343216117394</v>
+        <v>0.0008397644315873905</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6396470565365817</v>
+        <v>1.028819556319235</v>
       </c>
       <c r="L25">
-        <v>0.347146241978308</v>
+        <v>0.2854819178350283</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.139714507642253</v>
+        <v>1.085338800662527</v>
       </c>
       <c r="C2">
-        <v>0.06342899345300523</v>
+        <v>0.1091541146429975</v>
       </c>
       <c r="D2">
-        <v>0.4548921717272805</v>
+        <v>0.06002750112084598</v>
       </c>
       <c r="E2">
-        <v>0.06917855777971837</v>
+        <v>0.06428794797496096</v>
       </c>
       <c r="F2">
-        <v>6.975788481389827</v>
+        <v>0.9506864252139025</v>
       </c>
       <c r="G2">
-        <v>0.0008526683237140074</v>
+        <v>0.8906787194479335</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.003861947500869989</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6247416598343705</v>
       </c>
       <c r="K2">
-        <v>0.8520606128982138</v>
+        <v>0.6953188807286637</v>
       </c>
       <c r="L2">
-        <v>0.2425466164022367</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.990311740639811</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2760069853418088</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.002073492496095</v>
+        <v>0.9437741270474191</v>
       </c>
       <c r="C3">
-        <v>0.05707916164982052</v>
+        <v>0.09909280752333416</v>
       </c>
       <c r="D3">
-        <v>0.4172833673138427</v>
+        <v>0.05755500837497252</v>
       </c>
       <c r="E3">
-        <v>0.06325670945480155</v>
+        <v>0.057463733262896</v>
       </c>
       <c r="F3">
-        <v>6.262273292794021</v>
+        <v>0.8968564039847209</v>
       </c>
       <c r="G3">
-        <v>0.0008616547471079717</v>
+        <v>0.8446117719330886</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.006133292006260116</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6086950042659396</v>
       </c>
       <c r="K3">
-        <v>0.7376938714203334</v>
+        <v>0.6757105327207427</v>
       </c>
       <c r="L3">
-        <v>0.2145349067435802</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8611095763929484</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2411639590924466</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9202596816446658</v>
+        <v>0.8570246728910149</v>
       </c>
       <c r="C4">
-        <v>0.0532620999965232</v>
+        <v>0.09290884795402832</v>
       </c>
       <c r="D4">
-        <v>0.3944635733784168</v>
+        <v>0.05600642157131119</v>
       </c>
       <c r="E4">
-        <v>0.05970645772485028</v>
+        <v>0.05327972725814156</v>
       </c>
       <c r="F4">
-        <v>5.831186285932375</v>
+        <v>0.8649335555128417</v>
       </c>
       <c r="G4">
-        <v>0.0008673058180521664</v>
+        <v>0.8174124554720805</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.007845440527011638</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5994819520572037</v>
       </c>
       <c r="K4">
-        <v>0.6696810693133557</v>
+        <v>0.664373948243508</v>
       </c>
       <c r="L4">
-        <v>0.1977813876650174</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7819121316359485</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2198108802199812</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8875286171903838</v>
+        <v>0.8217048721412823</v>
       </c>
       <c r="C5">
-        <v>0.05172231989515552</v>
+        <v>0.09038537533142232</v>
       </c>
       <c r="D5">
-        <v>0.3852182818180694</v>
+        <v>0.05536771181067479</v>
       </c>
       <c r="E5">
-        <v>0.05827909329322978</v>
+        <v>0.05157507127757555</v>
       </c>
       <c r="F5">
-        <v>5.65702101570119</v>
+        <v>0.8521925112639579</v>
       </c>
       <c r="G5">
-        <v>0.0008696441368020846</v>
+        <v>0.8065857936649934</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.008619234298446382</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5958812697550115</v>
       </c>
       <c r="K5">
-        <v>0.6424584315778219</v>
+        <v>0.6599224837841646</v>
       </c>
       <c r="L5">
-        <v>0.1910542703492695</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7496600332368644</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2111158389846963</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8821284906412927</v>
+        <v>0.8158416023765653</v>
       </c>
       <c r="C6">
-        <v>0.05146745583701318</v>
+        <v>0.08996609279084566</v>
       </c>
       <c r="D6">
-        <v>0.3836859665078833</v>
+        <v>0.05526119307193511</v>
       </c>
       <c r="E6">
-        <v>0.05804319143273062</v>
+        <v>0.05129200303781367</v>
       </c>
       <c r="F6">
-        <v>5.628184854111453</v>
+        <v>0.8500925866245836</v>
       </c>
       <c r="G6">
-        <v>0.0008700346079011378</v>
+        <v>0.8048031261302242</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.008752209936830652</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5952924607802146</v>
       </c>
       <c r="K6">
-        <v>0.6379662012807188</v>
+        <v>0.6591932446092486</v>
       </c>
       <c r="L6">
-        <v>0.1899429502396259</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7443055584438412</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2096723220546153</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9198158821056097</v>
+        <v>0.8565482261766419</v>
       </c>
       <c r="C7">
-        <v>0.05324127648188437</v>
+        <v>0.09287483193237023</v>
       </c>
       <c r="D7">
-        <v>0.3943386879322617</v>
+        <v>0.05599783865532615</v>
       </c>
       <c r="E7">
-        <v>0.059687132021363</v>
+        <v>0.05325673771986317</v>
       </c>
       <c r="F7">
-        <v>5.828831658424718</v>
+        <v>0.8647606618734542</v>
       </c>
       <c r="G7">
-        <v>0.0008673372074812369</v>
+        <v>0.8172654219387283</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.007855573003337502</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5994327788076532</v>
       </c>
       <c r="K7">
-        <v>0.6693120169148017</v>
+        <v>0.6643132437943748</v>
       </c>
       <c r="L7">
-        <v>0.1976902733314603</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.78147709683671</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2196935942715328</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.091651806927331</v>
+        <v>1.036484217929768</v>
       </c>
       <c r="C8">
-        <v>0.06121952672988584</v>
+        <v>0.1056851101135976</v>
       </c>
       <c r="D8">
-        <v>0.4418590590489799</v>
+        <v>0.0591813148729905</v>
       </c>
       <c r="E8">
-        <v>0.06711752726854314</v>
+        <v>0.06193297127149933</v>
       </c>
       <c r="F8">
-        <v>6.728150408425506</v>
+        <v>0.9318815531312197</v>
       </c>
       <c r="G8">
-        <v>0.0008557403707751874</v>
+        <v>0.874559686476502</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.004576887825150977</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6190716047253346</v>
       </c>
       <c r="K8">
-        <v>0.8121291778274724</v>
+        <v>0.688406769037293</v>
       </c>
       <c r="L8">
-        <v>0.2327880811069321</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9457277142700775</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2639823638718894</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.453553866814389</v>
+        <v>1.391290176934405</v>
       </c>
       <c r="C9">
-        <v>0.07776061782074706</v>
+        <v>0.1308476820586435</v>
       </c>
       <c r="D9">
-        <v>0.5379314054425777</v>
+        <v>0.06518223212864172</v>
       </c>
       <c r="E9">
-        <v>0.08247859538930769</v>
+        <v>0.07905162434037294</v>
       </c>
       <c r="F9">
-        <v>8.560311825411389</v>
+        <v>1.073235709365235</v>
       </c>
       <c r="G9">
-        <v>0.0008339610083061842</v>
+        <v>0.9962863007492473</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0008442951903393503</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6630001296373393</v>
       </c>
       <c r="K9">
-        <v>1.112867818956857</v>
+        <v>0.7416377997442396</v>
       </c>
       <c r="L9">
-        <v>0.3057568899532157</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.26947112560967</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3513357692088164</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.740211504203359</v>
+        <v>1.650277729277661</v>
       </c>
       <c r="C10">
-        <v>0.09085433832178325</v>
+        <v>0.1518542709903556</v>
       </c>
       <c r="D10">
-        <v>0.6114124428996206</v>
+        <v>0.07046456553072034</v>
       </c>
       <c r="E10">
-        <v>0.09441770296145435</v>
+        <v>0.08705370777801491</v>
       </c>
       <c r="F10">
-        <v>9.968574606476068</v>
+        <v>1.16435890651185</v>
       </c>
       <c r="G10">
-        <v>0.0008183955021492333</v>
+        <v>1.070597788734602</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0002003120932680957</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6880002590961283</v>
       </c>
       <c r="K10">
-        <v>1.351411364951161</v>
+        <v>0.7690393385959737</v>
       </c>
       <c r="L10">
-        <v>0.3628455314098886</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.512537513279142</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.398045944932889</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.876587835155902</v>
+        <v>1.735486288844015</v>
       </c>
       <c r="C11">
-        <v>0.09712070319971389</v>
+        <v>0.1843465425922943</v>
       </c>
       <c r="D11">
-        <v>0.6457646686482406</v>
+        <v>0.08322586638764307</v>
       </c>
       <c r="E11">
-        <v>0.1000353879751863</v>
+        <v>0.05627757686170298</v>
       </c>
       <c r="F11">
-        <v>10.62801327072361</v>
+        <v>1.040250239279928</v>
       </c>
       <c r="G11">
-        <v>0.0008113700375433708</v>
+        <v>0.9227467343850577</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01875953081135862</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6075456854448191</v>
       </c>
       <c r="K11">
-        <v>1.46506122017621</v>
+        <v>0.6511057616339144</v>
       </c>
       <c r="L11">
-        <v>0.3898202874087957</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.653627355348306</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2772266479076393</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.929231612093361</v>
+        <v>1.751910914714841</v>
       </c>
       <c r="C12">
-        <v>0.09954867185779648</v>
+        <v>0.2105595460725453</v>
       </c>
       <c r="D12">
-        <v>0.6589345471262789</v>
+        <v>0.09492724219081339</v>
       </c>
       <c r="E12">
-        <v>0.1021937645677369</v>
+        <v>0.03747481485688198</v>
       </c>
       <c r="F12">
-        <v>10.88094210742332</v>
+        <v>0.9214274927766013</v>
       </c>
       <c r="G12">
-        <v>0.0008087138807555598</v>
+        <v>0.7909415841246812</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05744533754894832</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5383586801748805</v>
       </c>
       <c r="K12">
-        <v>1.508964349186556</v>
+        <v>0.5545268245855723</v>
       </c>
       <c r="L12">
-        <v>0.4002035463938256</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.722855722109671</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.184983309887798</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.917846828483164</v>
+        <v>1.716146720946426</v>
       </c>
       <c r="C13">
-        <v>0.09902313319715006</v>
+        <v>0.2330707974403197</v>
       </c>
       <c r="D13">
-        <v>0.6560905038323881</v>
+        <v>0.1062807174046725</v>
       </c>
       <c r="E13">
-        <v>0.1017274630821419</v>
+        <v>0.02677042768023385</v>
       </c>
       <c r="F13">
-        <v>10.82631756179848</v>
+        <v>0.7996393257209746</v>
       </c>
       <c r="G13">
-        <v>0.0008092858080197009</v>
+        <v>0.663658473095353</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1132497659557572</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.47363796620877</v>
       </c>
       <c r="K13">
-        <v>1.499468248954571</v>
+        <v>0.4685428259297666</v>
       </c>
       <c r="L13">
-        <v>0.3979594123661059</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.740002451634524</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1098896658690407</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.8808979214229</v>
+        <v>1.667653073442978</v>
       </c>
       <c r="C14">
-        <v>0.09731928483351737</v>
+        <v>0.2473450289951842</v>
       </c>
       <c r="D14">
-        <v>0.6468447504286132</v>
+        <v>0.1141975267590567</v>
       </c>
       <c r="E14">
-        <v>0.1002123095196161</v>
+        <v>0.02414302647603384</v>
       </c>
       <c r="F14">
-        <v>10.6487543039583</v>
+        <v>0.7144492458715703</v>
       </c>
       <c r="G14">
-        <v>0.0008111514522558591</v>
+        <v>0.5784437233528621</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.162682858579501</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4311941266400083</v>
       </c>
       <c r="K14">
-        <v>1.468654992315635</v>
+        <v>0.4146745614663168</v>
       </c>
       <c r="L14">
-        <v>0.390670997576521</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.728429384451687</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06819823812119807</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.858400575793155</v>
+        <v>1.644866005401354</v>
       </c>
       <c r="C15">
-        <v>0.09628313414311407</v>
+        <v>0.2495424546883527</v>
       </c>
       <c r="D15">
-        <v>0.6412033924490004</v>
+        <v>0.115744385941646</v>
       </c>
       <c r="E15">
-        <v>0.09928841823955281</v>
+        <v>0.02407564326726597</v>
       </c>
       <c r="F15">
-        <v>10.54042650279013</v>
+        <v>0.6925243199834483</v>
       </c>
       <c r="G15">
-        <v>0.0008122946451375921</v>
+        <v>0.5576434348841417</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1752411115555788</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.42133598454798</v>
       </c>
       <c r="K15">
-        <v>1.449897933807961</v>
+        <v>0.4027291828469401</v>
       </c>
       <c r="L15">
-        <v>0.3862293478888432</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.714230583576409</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05927235416636023</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.731430882381176</v>
+        <v>1.541022327314153</v>
       </c>
       <c r="C16">
-        <v>0.09045191121909113</v>
+        <v>0.2348990301362619</v>
       </c>
       <c r="D16">
-        <v>0.6091884024774004</v>
+        <v>0.110608484653369</v>
       </c>
       <c r="E16">
-        <v>0.09405467855168226</v>
+        <v>0.02317646806433027</v>
       </c>
       <c r="F16">
-        <v>9.925899193639935</v>
+        <v>0.6789627326485927</v>
       </c>
       <c r="G16">
-        <v>0.0008188554396062289</v>
+        <v>0.5524607739657341</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1628300705994832</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4238786681155773</v>
       </c>
       <c r="K16">
-        <v>1.344097931560412</v>
+        <v>0.4087688876386331</v>
       </c>
       <c r="L16">
-        <v>0.3611048645789197</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.604555737804503</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0572037609971332</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.655164014812584</v>
+        <v>1.487274883404183</v>
       </c>
       <c r="C17">
-        <v>0.08696097729330887</v>
+        <v>0.2160323832465565</v>
       </c>
       <c r="D17">
-        <v>0.5898042468921005</v>
+        <v>0.1024140660621029</v>
       </c>
       <c r="E17">
-        <v>0.09089457716857297</v>
+        <v>0.02303948017713264</v>
       </c>
       <c r="F17">
-        <v>9.554065439098281</v>
+        <v>0.713319898507109</v>
       </c>
       <c r="G17">
-        <v>0.0008228919579002727</v>
+        <v>0.5929619213791142</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.125283307640089</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4480799201353989</v>
       </c>
       <c r="K17">
-        <v>1.280593653996448</v>
+        <v>0.4413014328591842</v>
       </c>
       <c r="L17">
-        <v>0.3459652306546985</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.526919206843814</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0755065462311606</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.611850061530248</v>
+        <v>1.47003282572166</v>
       </c>
       <c r="C18">
-        <v>0.0849815454868974</v>
+        <v>0.1927585770198448</v>
       </c>
       <c r="D18">
-        <v>0.5787401805579862</v>
+        <v>0.09155864388571899</v>
       </c>
       <c r="E18">
-        <v>0.08909424079504191</v>
+        <v>0.02786428786686468</v>
       </c>
       <c r="F18">
-        <v>9.341933013206017</v>
+        <v>0.795732879523527</v>
       </c>
       <c r="G18">
-        <v>0.0008252191183494163</v>
+        <v>0.6820242714590847</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07249184045650736</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4958365430974396</v>
       </c>
       <c r="K18">
-        <v>1.244542351328647</v>
+        <v>0.5048842804286835</v>
       </c>
       <c r="L18">
-        <v>0.3373502749727635</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.468301566487128</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.123279673910254</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.597275632620097</v>
+        <v>1.483230919614215</v>
       </c>
       <c r="C19">
-        <v>0.08431593937363147</v>
+        <v>0.1695451890369952</v>
       </c>
       <c r="D19">
-        <v>0.575007905841062</v>
+        <v>0.08059043555851986</v>
       </c>
       <c r="E19">
-        <v>0.08848752338601429</v>
+        <v>0.04283441660591691</v>
       </c>
       <c r="F19">
-        <v>9.270392484563644</v>
+        <v>0.9161717701142464</v>
       </c>
       <c r="G19">
-        <v>0.0008260080982280178</v>
+        <v>0.8115722825171758</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02701931314080497</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5627545772058227</v>
       </c>
       <c r="K19">
-        <v>1.232413923420495</v>
+        <v>0.596139286109306</v>
       </c>
       <c r="L19">
-        <v>0.334448686952399</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.429852383574854</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2064966682510487</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.663224583566546</v>
+        <v>1.581955856918256</v>
       </c>
       <c r="C20">
-        <v>0.08732957694973464</v>
+        <v>0.1464078336350951</v>
       </c>
       <c r="D20">
-        <v>0.5918587134667064</v>
+        <v>0.06912260890157995</v>
       </c>
       <c r="E20">
-        <v>0.09122915889619421</v>
+        <v>0.08474074612685811</v>
       </c>
       <c r="F20">
-        <v>9.593464591318508</v>
+        <v>1.13908275825338</v>
       </c>
       <c r="G20">
-        <v>0.000822461723663837</v>
+        <v>1.049659148180908</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0002233568411935671</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6806894439290687</v>
       </c>
       <c r="K20">
-        <v>1.287303797226798</v>
+        <v>0.7608578694195742</v>
       </c>
       <c r="L20">
-        <v>0.3475670860437816</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.448682517907457</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3849967452749041</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.891722309305663</v>
+        <v>1.787421567909433</v>
       </c>
       <c r="C21">
-        <v>0.09781816115659581</v>
+        <v>0.1589884021006043</v>
       </c>
       <c r="D21">
-        <v>0.6495558251974103</v>
+        <v>0.07155856056137111</v>
       </c>
       <c r="E21">
-        <v>0.1006564664598955</v>
+        <v>0.09825694747979341</v>
       </c>
       <c r="F21">
-        <v>10.70081731082126</v>
+        <v>1.242213871082242</v>
       </c>
       <c r="G21">
-        <v>0.0008106033846811168</v>
+        <v>1.143135229349937</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0001236253239793594</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7183746104873308</v>
       </c>
       <c r="K21">
-        <v>1.477680964509887</v>
+        <v>0.8080906984493907</v>
       </c>
       <c r="L21">
-        <v>0.3928070001631738</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.63094555922325</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4489872515472797</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.046975081911853</v>
+        <v>1.920477982229954</v>
       </c>
       <c r="C22">
-        <v>0.104999952803297</v>
+        <v>0.1684801762558692</v>
       </c>
       <c r="D22">
-        <v>0.6882213528525085</v>
+        <v>0.0736388476397849</v>
       </c>
       <c r="E22">
-        <v>0.1070013404320527</v>
+        <v>0.1047400637999871</v>
       </c>
       <c r="F22">
-        <v>11.44355819022451</v>
+        <v>1.301206692820813</v>
       </c>
       <c r="G22">
-        <v>0.0008028758295274309</v>
+        <v>1.194669073002572</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0005816595788490364</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.738221507313483</v>
       </c>
       <c r="K22">
-        <v>1.607227267438759</v>
+        <v>0.8318052362786332</v>
       </c>
       <c r="L22">
-        <v>0.4233697998363795</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.752399687871502</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4818272945230007</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.963519904213058</v>
+        <v>1.849394500982157</v>
       </c>
       <c r="C23">
-        <v>0.1011330749703063</v>
+        <v>0.1634061711873045</v>
       </c>
       <c r="D23">
-        <v>0.6674868123897397</v>
+        <v>0.07253098030896155</v>
       </c>
       <c r="E23">
-        <v>0.1035965986272167</v>
+        <v>0.1012742979215489</v>
       </c>
       <c r="F23">
-        <v>11.04521565898381</v>
+        <v>1.269560158775988</v>
       </c>
       <c r="G23">
-        <v>0.0008069994796890689</v>
+        <v>1.167008424502271</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0002958289459844554</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7275463177994226</v>
       </c>
       <c r="K23">
-        <v>1.537569708484625</v>
+        <v>0.8190550635518861</v>
       </c>
       <c r="L23">
-        <v>0.4069578765071498</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.687511349078989</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4642802568170339</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.659578751067784</v>
+        <v>1.581576027699413</v>
       </c>
       <c r="C24">
-        <v>0.08716284799321272</v>
+        <v>0.1443482186801361</v>
       </c>
       <c r="D24">
-        <v>0.5909296415921972</v>
+        <v>0.06828188263977353</v>
       </c>
       <c r="E24">
-        <v>0.09107784357923521</v>
+        <v>0.08826087193655496</v>
       </c>
       <c r="F24">
-        <v>9.575647164633693</v>
+        <v>1.153095045950636</v>
       </c>
       <c r="G24">
-        <v>0.0008226562120711003</v>
+        <v>1.065534350837709</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.930291112618782E-05</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6888642272348591</v>
       </c>
       <c r="K24">
-        <v>1.284268723849124</v>
+        <v>0.7727390457142036</v>
       </c>
       <c r="L24">
-        <v>0.3468426117089791</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.44309333627271</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3982231019545708</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.352447112625526</v>
+        <v>1.295007890649856</v>
       </c>
       <c r="C25">
-        <v>0.07315237083421877</v>
+        <v>0.1240224834093908</v>
       </c>
       <c r="D25">
-        <v>0.5115229227564839</v>
+        <v>0.06358468662213568</v>
       </c>
       <c r="E25">
-        <v>0.07822190491003767</v>
+        <v>0.0744010579188874</v>
       </c>
       <c r="F25">
-        <v>8.055362304904747</v>
+        <v>1.033840159021707</v>
       </c>
       <c r="G25">
-        <v>0.0008397644315873905</v>
+        <v>0.9622412872747077</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001539534989807967</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6504861335076555</v>
       </c>
       <c r="K25">
-        <v>1.028819556319235</v>
+        <v>0.7265371811668473</v>
       </c>
       <c r="L25">
-        <v>0.2854819178350283</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.181624378150161</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3276235475749161</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.085338800662527</v>
+        <v>1.061633792047502</v>
       </c>
       <c r="C2">
-        <v>0.1091541146429975</v>
+        <v>0.1198788520197382</v>
       </c>
       <c r="D2">
-        <v>0.06002750112084598</v>
+        <v>0.06356785018180489</v>
       </c>
       <c r="E2">
-        <v>0.06428794797496096</v>
+        <v>0.05863947639849343</v>
       </c>
       <c r="F2">
-        <v>0.9506864252139025</v>
+        <v>0.8065916893109346</v>
       </c>
       <c r="G2">
-        <v>0.8906787194479335</v>
+        <v>0.7161820501182063</v>
       </c>
       <c r="H2">
-        <v>0.003861947500869989</v>
+        <v>0.002643457143137629</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6247416598343705</v>
+        <v>0.5595125562840337</v>
       </c>
       <c r="K2">
-        <v>0.6953188807286637</v>
+        <v>0.5601928288058886</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2483950408061233</v>
       </c>
       <c r="M2">
-        <v>0.990311740639811</v>
+        <v>0.1754071662209107</v>
       </c>
       <c r="N2">
-        <v>0.2760069853418088</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.030203806585973</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2890211040848101</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9437741270474191</v>
+        <v>0.9251936042128364</v>
       </c>
       <c r="C3">
-        <v>0.09909280752333416</v>
+        <v>0.1052315983248207</v>
       </c>
       <c r="D3">
-        <v>0.05755500837497252</v>
+        <v>0.05943006442283405</v>
       </c>
       <c r="E3">
-        <v>0.057463733262896</v>
+        <v>0.05292214314418153</v>
       </c>
       <c r="F3">
-        <v>0.8968564039847209</v>
+        <v>0.7692000768115577</v>
       </c>
       <c r="G3">
-        <v>0.8446117719330886</v>
+        <v>0.6905442169946099</v>
       </c>
       <c r="H3">
-        <v>0.006133292006260116</v>
+        <v>0.004338959402590881</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6086950042659396</v>
+        <v>0.5471213470757021</v>
       </c>
       <c r="K3">
-        <v>0.6757105327207427</v>
+        <v>0.5528080160824018</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2507095840892504</v>
       </c>
       <c r="M3">
-        <v>0.8611095763929484</v>
+        <v>0.1687970705773942</v>
       </c>
       <c r="N3">
-        <v>0.2411639590924466</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8954104880384079</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2533243923219004</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8570246728910149</v>
+        <v>0.8413883162889135</v>
       </c>
       <c r="C4">
-        <v>0.09290884795402832</v>
+        <v>0.09630874074851192</v>
       </c>
       <c r="D4">
-        <v>0.05600642157131119</v>
+        <v>0.05687867182162165</v>
       </c>
       <c r="E4">
-        <v>0.05327972725814156</v>
+        <v>0.04940340257536313</v>
       </c>
       <c r="F4">
-        <v>0.8649335555128417</v>
+        <v>0.7470471698320011</v>
       </c>
       <c r="G4">
-        <v>0.8174124554720805</v>
+        <v>0.6757529172165846</v>
       </c>
       <c r="H4">
-        <v>0.007845440527011638</v>
+        <v>0.005632561644527301</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5994819520572037</v>
+        <v>0.5397534598797478</v>
       </c>
       <c r="K4">
-        <v>0.664373948243508</v>
+        <v>0.5487278990970772</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2521633405926806</v>
       </c>
       <c r="M4">
-        <v>0.7819121316359485</v>
+        <v>0.1655788699339595</v>
       </c>
       <c r="N4">
-        <v>0.2198108802199812</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8127414583550205</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2314350817012212</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8217048721412823</v>
+        <v>0.8072208548380502</v>
       </c>
       <c r="C5">
-        <v>0.09038537533142232</v>
+        <v>0.09268802126633346</v>
       </c>
       <c r="D5">
-        <v>0.05536771181067479</v>
+        <v>0.05583615330372638</v>
       </c>
       <c r="E5">
-        <v>0.05157507127757555</v>
+        <v>0.04796655074668976</v>
       </c>
       <c r="F5">
-        <v>0.8521925112639579</v>
+        <v>0.7382100650376913</v>
       </c>
       <c r="G5">
-        <v>0.8065857936649934</v>
+        <v>0.6699501395019212</v>
       </c>
       <c r="H5">
-        <v>0.008619234298446382</v>
+        <v>0.006220279541327534</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5958812697550115</v>
+        <v>0.5368082726852492</v>
       </c>
       <c r="K5">
-        <v>0.6599224837841646</v>
+        <v>0.5471737281867632</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2527635760542744</v>
       </c>
       <c r="M5">
-        <v>0.7496600332368644</v>
+        <v>0.164474464932411</v>
       </c>
       <c r="N5">
-        <v>0.2111158389846963</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7790673512174351</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2225192570207923</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8158416023765653</v>
+        <v>0.8015461622409532</v>
       </c>
       <c r="C6">
-        <v>0.08996609279084566</v>
+        <v>0.09208766883659791</v>
       </c>
       <c r="D6">
-        <v>0.05526119307193511</v>
+        <v>0.05566287187666319</v>
       </c>
       <c r="E6">
-        <v>0.05129200303781367</v>
+        <v>0.04772776094133846</v>
       </c>
       <c r="F6">
-        <v>0.8500925866245836</v>
+        <v>0.7367538220445482</v>
       </c>
       <c r="G6">
-        <v>0.8048031261302242</v>
+        <v>0.668999766236368</v>
       </c>
       <c r="H6">
-        <v>0.008752209936830652</v>
+        <v>0.006321443587749276</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5952924607802146</v>
+        <v>0.536322596886464</v>
       </c>
       <c r="K6">
-        <v>0.6591932446092486</v>
+        <v>0.5469220507974768</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2528637059734677</v>
       </c>
       <c r="M6">
-        <v>0.7443055584438412</v>
+        <v>0.164303462427263</v>
       </c>
       <c r="N6">
-        <v>0.2096723220546153</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7734763790604973</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2210389641053894</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8565482261766419</v>
+        <v>0.8411557218038297</v>
       </c>
       <c r="C7">
-        <v>0.09287483193237023</v>
+        <v>0.09602161627510242</v>
       </c>
       <c r="D7">
-        <v>0.05599783865532615</v>
+        <v>0.05699497763674799</v>
       </c>
       <c r="E7">
-        <v>0.05325673771986317</v>
+        <v>0.04941609054488971</v>
       </c>
       <c r="F7">
-        <v>0.8647606618734542</v>
+        <v>0.7448890395109515</v>
       </c>
       <c r="G7">
-        <v>0.8172654219387283</v>
+        <v>0.6782956889449849</v>
       </c>
       <c r="H7">
-        <v>0.007855573003337502</v>
+        <v>0.005646911849148839</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5994327788076532</v>
+        <v>0.5334637698358051</v>
       </c>
       <c r="K7">
-        <v>0.6643132437943748</v>
+        <v>0.5474215324359903</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2516056994721723</v>
       </c>
       <c r="M7">
-        <v>0.78147709683671</v>
+        <v>0.1651651632491493</v>
       </c>
       <c r="N7">
-        <v>0.2196935942715328</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.811955891012957</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2312372582485835</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.036484217929768</v>
+        <v>1.015348410709549</v>
       </c>
       <c r="C8">
-        <v>0.1056851101135976</v>
+        <v>0.1140037238710931</v>
       </c>
       <c r="D8">
-        <v>0.0591813148729905</v>
+        <v>0.06259569826290345</v>
       </c>
       <c r="E8">
-        <v>0.06193297127149933</v>
+        <v>0.05677787399988965</v>
       </c>
       <c r="F8">
-        <v>0.9318815531312197</v>
+        <v>0.7868088459244902</v>
       </c>
       <c r="G8">
-        <v>0.874559686476502</v>
+        <v>0.7159103290470483</v>
       </c>
       <c r="H8">
-        <v>0.004576887825150977</v>
+        <v>0.003189279699590486</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6190716047253346</v>
+        <v>0.5348006750698318</v>
       </c>
       <c r="K8">
-        <v>0.688406769037293</v>
+        <v>0.5533572277336773</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2474506472381286</v>
       </c>
       <c r="M8">
-        <v>0.9457277142700775</v>
+        <v>0.1715411630066548</v>
       </c>
       <c r="N8">
-        <v>0.2639823638718894</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9825830123276376</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2764455775405992</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.391290176934405</v>
+        <v>1.356287851565952</v>
       </c>
       <c r="C9">
-        <v>0.1308476820586435</v>
+        <v>0.1508007538285909</v>
       </c>
       <c r="D9">
-        <v>0.06518223212864172</v>
+        <v>0.07302328661796764</v>
       </c>
       <c r="E9">
-        <v>0.07905162434037294</v>
+        <v>0.07107254938307506</v>
       </c>
       <c r="F9">
-        <v>1.073235709365235</v>
+        <v>0.883384295819468</v>
       </c>
       <c r="G9">
-        <v>0.9962863007492473</v>
+        <v>0.7882980179073229</v>
       </c>
       <c r="H9">
-        <v>0.0008442951903393503</v>
+        <v>0.0004859277898277004</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6630001296373393</v>
+        <v>0.5617539744973215</v>
       </c>
       <c r="K9">
-        <v>0.7416377997442396</v>
+        <v>0.5735357487933683</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2416445647330008</v>
       </c>
       <c r="M9">
-        <v>1.26947112560967</v>
+        <v>0.1923519907620843</v>
       </c>
       <c r="N9">
-        <v>0.3513357692088164</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.319607291951485</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3657499136092497</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.650277729277661</v>
+        <v>1.605960168619703</v>
       </c>
       <c r="C10">
-        <v>0.1518542709903556</v>
+        <v>0.1792818679653436</v>
       </c>
       <c r="D10">
-        <v>0.07046456553072034</v>
+        <v>0.08268893297752555</v>
       </c>
       <c r="E10">
-        <v>0.08705370777801491</v>
+        <v>0.07756267213943957</v>
       </c>
       <c r="F10">
-        <v>1.16435890651185</v>
+        <v>0.933047111341196</v>
       </c>
       <c r="G10">
-        <v>1.070597788734602</v>
+        <v>0.8470369045232928</v>
       </c>
       <c r="H10">
-        <v>0.0002003120932680957</v>
+        <v>0.0001876279832084826</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6880002590961283</v>
+        <v>0.5412337408683356</v>
       </c>
       <c r="K10">
-        <v>0.7690393385959737</v>
+        <v>0.5731108142150916</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2311747655037024</v>
       </c>
       <c r="M10">
-        <v>1.512537513279142</v>
+        <v>0.2049911368796238</v>
       </c>
       <c r="N10">
-        <v>0.398045944932889</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.569244601473258</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.4128278768349247</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.735486288844015</v>
+        <v>1.696616289350175</v>
       </c>
       <c r="C11">
-        <v>0.1843465425922943</v>
+        <v>0.2116332958312057</v>
       </c>
       <c r="D11">
-        <v>0.08322586638764307</v>
+        <v>0.1003861920845068</v>
       </c>
       <c r="E11">
-        <v>0.05627757686170298</v>
+        <v>0.05001234899698481</v>
       </c>
       <c r="F11">
-        <v>1.040250239279928</v>
+        <v>0.8143150387250557</v>
       </c>
       <c r="G11">
-        <v>0.9227467343850577</v>
+        <v>0.7640346322404099</v>
       </c>
       <c r="H11">
-        <v>0.01875953081135862</v>
+        <v>0.01875158264532217</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6075456854448191</v>
+        <v>0.4227190744671105</v>
       </c>
       <c r="K11">
-        <v>0.6511057616339144</v>
+        <v>0.4741545490025771</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1922809264553003</v>
       </c>
       <c r="M11">
-        <v>1.653627355348306</v>
+        <v>0.1710862829051933</v>
       </c>
       <c r="N11">
-        <v>0.2772266479076393</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.703164772324783</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2877911779075362</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.751910914714841</v>
+        <v>1.719040244379102</v>
       </c>
       <c r="C12">
-        <v>0.2105595460725453</v>
+        <v>0.235752146614189</v>
       </c>
       <c r="D12">
-        <v>0.09492724219081339</v>
+        <v>0.1146030309659309</v>
       </c>
       <c r="E12">
-        <v>0.03747481485688198</v>
+        <v>0.03357659852116868</v>
       </c>
       <c r="F12">
-        <v>0.9214274927766013</v>
+        <v>0.7157907895464533</v>
       </c>
       <c r="G12">
-        <v>0.7909415841246812</v>
+        <v>0.6753000131848808</v>
       </c>
       <c r="H12">
-        <v>0.05744533754894832</v>
+        <v>0.05742432762274063</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5383586801748805</v>
+        <v>0.3574584262415428</v>
       </c>
       <c r="K12">
-        <v>0.5545268245855723</v>
+        <v>0.4028209065164958</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1666905696288623</v>
       </c>
       <c r="M12">
-        <v>1.722855722109671</v>
+        <v>0.143697448068572</v>
       </c>
       <c r="N12">
-        <v>0.184983309887798</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.765781000292066</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1926756569776273</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.716146720946426</v>
+        <v>1.689347449084181</v>
       </c>
       <c r="C13">
-        <v>0.2330707974403197</v>
+        <v>0.2556216994479712</v>
       </c>
       <c r="D13">
-        <v>0.1062807174046725</v>
+        <v>0.1257529003480897</v>
       </c>
       <c r="E13">
-        <v>0.02677042768023385</v>
+        <v>0.0247731081314686</v>
       </c>
       <c r="F13">
-        <v>0.7996393257209746</v>
+        <v>0.6290474114811104</v>
       </c>
       <c r="G13">
-        <v>0.663658473095353</v>
+        <v>0.5727224676932678</v>
       </c>
       <c r="H13">
-        <v>0.1132497659557572</v>
+        <v>0.113191569995962</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.47363796620877</v>
+        <v>0.3274550271065806</v>
       </c>
       <c r="K13">
-        <v>0.4685428259297666</v>
+        <v>0.3483093550353047</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1486592916014438</v>
       </c>
       <c r="M13">
-        <v>1.740002451634524</v>
+        <v>0.1205575920494333</v>
       </c>
       <c r="N13">
-        <v>0.1098896658690407</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.777453015705191</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1155172235768944</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.667653073442978</v>
+        <v>1.645095836423764</v>
       </c>
       <c r="C14">
-        <v>0.2473450289951842</v>
+        <v>0.2678001852206222</v>
       </c>
       <c r="D14">
-        <v>0.1141975267590567</v>
+        <v>0.1320776488558124</v>
       </c>
       <c r="E14">
-        <v>0.02414302647603384</v>
+        <v>0.02326234136860172</v>
       </c>
       <c r="F14">
-        <v>0.7144492458715703</v>
+        <v>0.5732285493769922</v>
       </c>
       <c r="G14">
-        <v>0.5784437233528621</v>
+        <v>0.4979557705017754</v>
       </c>
       <c r="H14">
-        <v>0.162682858579501</v>
+        <v>0.162576839498783</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4311941266400083</v>
+        <v>0.3184135980024507</v>
       </c>
       <c r="K14">
-        <v>0.4146745614663168</v>
+        <v>0.3174757768738239</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1390007274516858</v>
       </c>
       <c r="M14">
-        <v>1.728429384451687</v>
+        <v>0.1065412016366558</v>
       </c>
       <c r="N14">
-        <v>0.06819823812119807</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.762516030942805</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.07268987835570329</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.644866005401354</v>
+        <v>1.623362677488331</v>
       </c>
       <c r="C15">
-        <v>0.2495424546883527</v>
+        <v>0.269527670482546</v>
       </c>
       <c r="D15">
-        <v>0.115744385941646</v>
+        <v>0.132674906064949</v>
       </c>
       <c r="E15">
-        <v>0.02407564326726597</v>
+        <v>0.02346046493181397</v>
       </c>
       <c r="F15">
-        <v>0.6925243199834483</v>
+        <v>0.560856163949893</v>
       </c>
       <c r="G15">
-        <v>0.5576434348841417</v>
+        <v>0.4775327430620422</v>
       </c>
       <c r="H15">
-        <v>0.1752411115555788</v>
+        <v>0.1751094567187153</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.42133598454798</v>
+        <v>0.3208004990104456</v>
       </c>
       <c r="K15">
-        <v>0.4027291828469401</v>
+        <v>0.3120145935786951</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1375077354131982</v>
       </c>
       <c r="M15">
-        <v>1.714230583576409</v>
+        <v>0.103642565306</v>
       </c>
       <c r="N15">
-        <v>0.05927235416636023</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.747736233042247</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.06355747301557102</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.541022327314153</v>
+        <v>1.520018290123488</v>
       </c>
       <c r="C16">
-        <v>0.2348990301362619</v>
+        <v>0.2552783527584239</v>
       </c>
       <c r="D16">
-        <v>0.110608484653369</v>
+        <v>0.1232141303007666</v>
       </c>
       <c r="E16">
-        <v>0.02317646806433027</v>
+        <v>0.02273012812553876</v>
       </c>
       <c r="F16">
-        <v>0.6789627326485927</v>
+        <v>0.5696004462818323</v>
       </c>
       <c r="G16">
-        <v>0.5524607739657341</v>
+        <v>0.455916191517673</v>
       </c>
       <c r="H16">
-        <v>0.1628300705994832</v>
+        <v>0.1625385734503482</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4238786681155773</v>
+        <v>0.3632666154189792</v>
       </c>
       <c r="K16">
-        <v>0.4087688876386331</v>
+        <v>0.3279592107451634</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1447797669765887</v>
       </c>
       <c r="M16">
-        <v>1.604555737804503</v>
+        <v>0.1068778913059028</v>
       </c>
       <c r="N16">
-        <v>0.0572037609971332</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.639938461576406</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.06197664529633684</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.487274883404183</v>
+        <v>1.464793592057475</v>
       </c>
       <c r="C17">
-        <v>0.2160323832465565</v>
+        <v>0.2372025666145703</v>
       </c>
       <c r="D17">
-        <v>0.1024140660621029</v>
+        <v>0.1132275320941929</v>
       </c>
       <c r="E17">
-        <v>0.02303948017713264</v>
+        <v>0.02209855051324522</v>
       </c>
       <c r="F17">
-        <v>0.713319898507109</v>
+        <v>0.6046217841663761</v>
       </c>
       <c r="G17">
-        <v>0.5929619213791142</v>
+        <v>0.4801040726378289</v>
       </c>
       <c r="H17">
-        <v>0.125283307640089</v>
+        <v>0.1248867341076902</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4480799201353989</v>
+        <v>0.4002542523111714</v>
       </c>
       <c r="K17">
-        <v>0.4413014328591842</v>
+        <v>0.3563861795013388</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1560181553758362</v>
       </c>
       <c r="M17">
-        <v>1.526919206843814</v>
+        <v>0.1162362827610828</v>
       </c>
       <c r="N17">
-        <v>0.0755065462311606</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.564879593050279</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.0812806018277854</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.47003282572166</v>
+        <v>1.443771184797498</v>
       </c>
       <c r="C18">
-        <v>0.1927585770198448</v>
+        <v>0.2154081093986946</v>
       </c>
       <c r="D18">
-        <v>0.09155864388571899</v>
+        <v>0.1017642876912817</v>
       </c>
       <c r="E18">
-        <v>0.02786428786686468</v>
+        <v>0.02559417361925309</v>
       </c>
       <c r="F18">
-        <v>0.795732879523527</v>
+        <v>0.6718726381501767</v>
       </c>
       <c r="G18">
-        <v>0.6820242714590847</v>
+        <v>0.5443768794469577</v>
       </c>
       <c r="H18">
-        <v>0.07249184045650736</v>
+        <v>0.07207534571801233</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4958365430974396</v>
+        <v>0.444962044086779</v>
       </c>
       <c r="K18">
-        <v>0.5048842804286835</v>
+        <v>0.4038066927987067</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1739495208530109</v>
       </c>
       <c r="M18">
-        <v>1.468301566487128</v>
+        <v>0.1335532746575971</v>
       </c>
       <c r="N18">
-        <v>0.123279673910254</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.51047307618424</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1308937699465247</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.483230919614215</v>
+        <v>1.451405948919216</v>
       </c>
       <c r="C19">
-        <v>0.1695451890369952</v>
+        <v>0.1937376918358922</v>
       </c>
       <c r="D19">
-        <v>0.08059043555851986</v>
+        <v>0.09058985164227806</v>
       </c>
       <c r="E19">
-        <v>0.04283441660591691</v>
+        <v>0.03832402912810018</v>
       </c>
       <c r="F19">
-        <v>0.9161717701142464</v>
+        <v>0.7650588581948696</v>
       </c>
       <c r="G19">
-        <v>0.8115722825171758</v>
+        <v>0.6399411231609378</v>
       </c>
       <c r="H19">
-        <v>0.02701931314080497</v>
+        <v>0.02668079394273093</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5627545772058227</v>
+        <v>0.498009853758461</v>
       </c>
       <c r="K19">
-        <v>0.596139286109306</v>
+        <v>0.4685779608379264</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1979215239344789</v>
       </c>
       <c r="M19">
-        <v>1.429852383574854</v>
+        <v>0.1581523514504859</v>
       </c>
       <c r="N19">
-        <v>0.2064966682510487</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.477392337263211</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.216785301071198</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.581955856918256</v>
+        <v>1.539392200681135</v>
       </c>
       <c r="C20">
-        <v>0.1464078336350951</v>
+        <v>0.1727726128010829</v>
       </c>
       <c r="D20">
-        <v>0.06912260890157995</v>
+        <v>0.07963995582388605</v>
       </c>
       <c r="E20">
-        <v>0.08474074612685811</v>
+        <v>0.07555185137051623</v>
       </c>
       <c r="F20">
-        <v>1.13908275825338</v>
+        <v>0.926094815941596</v>
       </c>
       <c r="G20">
-        <v>1.049659148180908</v>
+        <v>0.8208014872213028</v>
       </c>
       <c r="H20">
-        <v>0.0002233568411935671</v>
+        <v>0.0001472267910216374</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6806894439290687</v>
+        <v>0.5668256262550955</v>
       </c>
       <c r="K20">
-        <v>0.7608578694195742</v>
+        <v>0.5768374853323905</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2352118544446213</v>
       </c>
       <c r="M20">
-        <v>1.448682517907457</v>
+        <v>0.202924479397911</v>
       </c>
       <c r="N20">
-        <v>0.3849967452749041</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.504940639274167</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3999550135041403</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.787421567909433</v>
+        <v>1.740282176552768</v>
       </c>
       <c r="C21">
-        <v>0.1589884021006043</v>
+        <v>0.1863641566728518</v>
       </c>
       <c r="D21">
-        <v>0.07155856056137111</v>
+        <v>0.08824942959523696</v>
       </c>
       <c r="E21">
-        <v>0.09825694747979341</v>
+        <v>0.08782686071844026</v>
       </c>
       <c r="F21">
-        <v>1.242213871082242</v>
+        <v>0.9513353605911306</v>
       </c>
       <c r="G21">
-        <v>1.143135229349937</v>
+        <v>0.9465959925977501</v>
       </c>
       <c r="H21">
-        <v>0.0001236253239793594</v>
+        <v>0.0001666125754185011</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7183746104873308</v>
+        <v>0.4626308395160805</v>
       </c>
       <c r="K21">
-        <v>0.8080906984493907</v>
+        <v>0.5716851286744529</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2255523143621367</v>
       </c>
       <c r="M21">
-        <v>1.63094555922325</v>
+        <v>0.2114772943134398</v>
       </c>
       <c r="N21">
-        <v>0.4489872515472797</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.686400191153524</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4633549831113015</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.920477982229954</v>
+        <v>1.870927878363091</v>
       </c>
       <c r="C22">
-        <v>0.1684801762558692</v>
+        <v>0.1961814080695063</v>
       </c>
       <c r="D22">
-        <v>0.0736388476397849</v>
+        <v>0.09490238701278031</v>
       </c>
       <c r="E22">
-        <v>0.1047400637999871</v>
+        <v>0.09380524191207229</v>
       </c>
       <c r="F22">
-        <v>1.301206692820813</v>
+        <v>0.9584835069239119</v>
       </c>
       <c r="G22">
-        <v>1.194669073002572</v>
+        <v>1.02924588544775</v>
       </c>
       <c r="H22">
-        <v>0.0005816595788490364</v>
+        <v>0.0005744911504697026</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.738221507313483</v>
+        <v>0.3951200424293546</v>
       </c>
       <c r="K22">
-        <v>0.8318052362786332</v>
+        <v>0.561763898202237</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2171340361073568</v>
       </c>
       <c r="M22">
-        <v>1.752399687871502</v>
+        <v>0.2147247012613462</v>
       </c>
       <c r="N22">
-        <v>0.4818272945230007</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.806161073894373</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4953785164324671</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.849394500982157</v>
+        <v>1.800524279548455</v>
       </c>
       <c r="C23">
-        <v>0.1634061711873045</v>
+        <v>0.1915964970542348</v>
       </c>
       <c r="D23">
-        <v>0.07253098030896155</v>
+        <v>0.09089745020911266</v>
       </c>
       <c r="E23">
-        <v>0.1012742979215489</v>
+        <v>0.09050878845885535</v>
       </c>
       <c r="F23">
-        <v>1.269560158775988</v>
+        <v>0.9597672299660616</v>
       </c>
       <c r="G23">
-        <v>1.167008424502271</v>
+        <v>0.9769300078138485</v>
       </c>
       <c r="H23">
-        <v>0.0002958289459844554</v>
+        <v>0.0003296451185901272</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7275463177994226</v>
+        <v>0.4421979535416796</v>
       </c>
       <c r="K23">
-        <v>0.8190550635518861</v>
+        <v>0.5701174178129378</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2226425555045921</v>
       </c>
       <c r="M23">
-        <v>1.687511349078989</v>
+        <v>0.214229920301257</v>
       </c>
       <c r="N23">
-        <v>0.4642802568170339</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.743141173421321</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4784871488106432</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.581576027699413</v>
+        <v>1.538449030668261</v>
       </c>
       <c r="C24">
-        <v>0.1443482186801361</v>
+        <v>0.1706383376037763</v>
       </c>
       <c r="D24">
-        <v>0.06828188263977353</v>
+        <v>0.07862730824027864</v>
       </c>
       <c r="E24">
-        <v>0.08826087193655496</v>
+        <v>0.07872991900090298</v>
       </c>
       <c r="F24">
-        <v>1.153095045950636</v>
+        <v>0.937093749089982</v>
       </c>
       <c r="G24">
-        <v>1.065534350837709</v>
+        <v>0.8321141655373339</v>
       </c>
       <c r="H24">
-        <v>8.930291112618782E-05</v>
+        <v>2.124270356529401E-05</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6888642272348591</v>
+        <v>0.5739973883750764</v>
       </c>
       <c r="K24">
-        <v>0.7727390457142036</v>
+        <v>0.5854421780409496</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2384587397163891</v>
       </c>
       <c r="M24">
-        <v>1.44309333627271</v>
+        <v>0.2061171897126037</v>
       </c>
       <c r="N24">
-        <v>0.3982231019545708</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.499850539166687</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.4135489639562877</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.295007890649856</v>
+        <v>1.263645849700566</v>
       </c>
       <c r="C25">
-        <v>0.1240224834093908</v>
+        <v>0.14111296735868</v>
       </c>
       <c r="D25">
-        <v>0.06358468662213568</v>
+        <v>0.0700066371989152</v>
       </c>
       <c r="E25">
-        <v>0.0744010579188874</v>
+        <v>0.06715447540526043</v>
       </c>
       <c r="F25">
-        <v>1.033840159021707</v>
+        <v>0.8592859337325223</v>
       </c>
       <c r="G25">
-        <v>0.9622412872747077</v>
+        <v>0.7639376150345356</v>
       </c>
       <c r="H25">
-        <v>0.001539534989807967</v>
+        <v>0.0009648317434289844</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6504861335076555</v>
+        <v>0.5628197318922759</v>
       </c>
       <c r="K25">
-        <v>0.7265371811668473</v>
+        <v>0.5693875711228458</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2438608487474418</v>
       </c>
       <c r="M25">
-        <v>1.181624378150161</v>
+        <v>0.1866030135118812</v>
       </c>
       <c r="N25">
-        <v>0.3276235475749161</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.228719703141621</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3416422592757016</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
